--- a/Jpet_application/src/test/resources/test_data/Jpet_Register.xlsx
+++ b/Jpet_application/src/test/resources/test_data/Jpet_Register.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,118 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>User ID</t>
   </si>
   <si>
     <t>New password</t>
   </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>nima</t>
-  </si>
-  <si>
-    <t>Yogesh</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>yogesh@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>pondy</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>nima@gmail.com</t>
-  </si>
-  <si>
-    <t>zzz</t>
-  </si>
-  <si>
-    <t>POndy</t>
-  </si>
-  <si>
-    <t>suji</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>suji@gmail.com</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Favourite Category</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>DOGS</t>
-  </si>
-  <si>
-    <t>CATS</t>
-  </si>
-  <si>
-    <t>BIRDS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +76,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -253,6 +159,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -287,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,206 +370,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>6382789045</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>605</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>456</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>9895643123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>601</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>789</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>6789967999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>501</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>76</v>
+      </c>
+      <c r="B10">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>